--- a/project/laliga2019/playingtime.xlsx
+++ b/project/laliga2019/playingtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00893A8F-90F0-4AAE-887B-0E8E1C42498C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E8F0F-F93F-4FD4-ABF4-AB66DB53EB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{23112A68-DBBC-4B47-A982-A242BBE1B1E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{23112A68-DBBC-4B47-A982-A242BBE1B1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Playing Time</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Mn/MP</t>
   </si>
   <si>
-    <t>Min%</t>
-  </si>
-  <si>
     <t>90s</t>
   </si>
   <si>
@@ -82,15 +79,6 @@
   </si>
   <si>
     <t>onGA</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>+/-90</t>
-  </si>
-  <si>
-    <t>On-Off</t>
   </si>
   <si>
     <t>Marc-André ter Stegen</t>
@@ -298,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -483,12 +471,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,21 +589,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -577,6 +628,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,16 +644,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -911,63 +977,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7BB777-A37B-402F-8C72-952F2CDFD158}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" style="29" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -976,115 +1038,91 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="B3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="D3" s="3">
+        <v>27</v>
+      </c>
+      <c r="E3" s="16">
+        <v>36</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3240</v>
+      </c>
+      <c r="G3" s="18">
+        <v>90</v>
+      </c>
+      <c r="H3" s="19">
+        <v>36</v>
+      </c>
+      <c r="I3" s="16">
+        <v>36</v>
+      </c>
+      <c r="J3" s="19">
+        <v>90</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>2.17</v>
+      </c>
+      <c r="O3" s="18">
+        <v>79</v>
+      </c>
+      <c r="P3" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="B4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="18">
-        <v>27</v>
-      </c>
-      <c r="E3" s="19">
-        <v>36</v>
-      </c>
-      <c r="F3" s="20">
-        <v>3240</v>
-      </c>
-      <c r="G3" s="21">
-        <v>90</v>
-      </c>
-      <c r="H3" s="21">
-        <v>94.7</v>
-      </c>
-      <c r="I3" s="22">
-        <v>36</v>
-      </c>
-      <c r="J3" s="19">
-        <v>36</v>
-      </c>
-      <c r="K3" s="22">
-        <v>90</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19">
-        <v>2.17</v>
-      </c>
-      <c r="P3" s="21">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>36</v>
-      </c>
-      <c r="R3" s="21">
-        <v>43</v>
-      </c>
-      <c r="S3" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="T3" s="22">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>32</v>
@@ -1098,53 +1136,41 @@
       <c r="G4" s="10">
         <v>88</v>
       </c>
-      <c r="H4" s="10">
-        <v>90.4</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="11">
         <v>34.4</v>
       </c>
-      <c r="J4" s="8">
+      <c r="I4" s="8">
         <v>35</v>
       </c>
-      <c r="K4" s="11">
+      <c r="J4" s="11">
         <v>88</v>
       </c>
-      <c r="L4" s="8">
+      <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11">
+      <c r="L4" s="10"/>
+      <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="N4" s="8">
         <v>2.09</v>
       </c>
-      <c r="P4" s="10">
+      <c r="O4" s="10">
         <v>71</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="P4" s="11">
         <v>36</v>
       </c>
-      <c r="R4" s="10">
-        <v>35</v>
-      </c>
-      <c r="S4" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="T4" s="11">
-        <v>-2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>60</v>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3">
         <v>32</v>
@@ -1158,55 +1184,43 @@
       <c r="G5" s="10">
         <v>87</v>
       </c>
-      <c r="H5" s="10">
-        <v>84.2</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="11">
         <v>32</v>
       </c>
-      <c r="J5" s="8">
+      <c r="I5" s="8">
         <v>32</v>
       </c>
-      <c r="K5" s="11">
+      <c r="J5" s="11">
         <v>89</v>
       </c>
-      <c r="L5" s="8">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="10">
         <v>45</v>
       </c>
-      <c r="N5" s="11">
+      <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="N5" s="8">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P5" s="10">
+      <c r="O5" s="10">
         <v>72</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="P5" s="11">
         <v>30</v>
       </c>
-      <c r="R5" s="10">
-        <v>42</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1.31</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>28</v>
@@ -1220,55 +1234,43 @@
       <c r="G6" s="10">
         <v>73</v>
       </c>
-      <c r="H6" s="10">
-        <v>74.5</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="11">
         <v>28.3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="I6" s="8">
         <v>31</v>
       </c>
-      <c r="K6" s="11">
+      <c r="J6" s="11">
         <v>81</v>
       </c>
-      <c r="L6" s="8">
+      <c r="K6" s="8">
         <v>4</v>
       </c>
-      <c r="M6" s="10">
+      <c r="L6" s="10">
         <v>13</v>
       </c>
-      <c r="N6" s="11">
+      <c r="M6" s="11">
         <v>1</v>
       </c>
-      <c r="O6" s="8">
+      <c r="N6" s="8">
         <v>2.17</v>
       </c>
-      <c r="P6" s="10">
+      <c r="O6" s="10">
         <v>61</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="P6" s="11">
         <v>29</v>
       </c>
-      <c r="R6" s="10">
-        <v>32</v>
-      </c>
-      <c r="S6" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="T6" s="11">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>31</v>
@@ -1282,55 +1284,43 @@
       <c r="G7" s="10">
         <v>75</v>
       </c>
-      <c r="H7" s="10">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="11">
         <v>27.6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="I7" s="8">
         <v>29</v>
       </c>
-      <c r="K7" s="11">
+      <c r="J7" s="11">
         <v>81</v>
       </c>
-      <c r="L7" s="8">
+      <c r="K7" s="8">
         <v>4</v>
       </c>
-      <c r="M7" s="10">
+      <c r="L7" s="10">
         <v>36</v>
       </c>
-      <c r="N7" s="11">
+      <c r="M7" s="11">
         <v>3</v>
       </c>
-      <c r="O7" s="8">
+      <c r="N7" s="8">
         <v>2.33</v>
       </c>
-      <c r="P7" s="10">
+      <c r="O7" s="10">
         <v>67</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="P7" s="11">
         <v>29</v>
       </c>
-      <c r="R7" s="10">
-        <v>38</v>
-      </c>
-      <c r="S7" s="10">
-        <v>1.38</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>24</v>
@@ -1344,53 +1334,41 @@
       <c r="G8" s="10">
         <v>87</v>
       </c>
-      <c r="H8" s="10">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="11">
         <v>26.9</v>
       </c>
-      <c r="J8" s="8">
+      <c r="I8" s="8">
         <v>28</v>
       </c>
-      <c r="K8" s="11">
+      <c r="J8" s="11">
         <v>87</v>
       </c>
-      <c r="L8" s="8">
+      <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11">
+      <c r="L8" s="10"/>
+      <c r="M8" s="11">
         <v>6</v>
       </c>
-      <c r="O8" s="8">
+      <c r="N8" s="8">
         <v>2.14</v>
       </c>
-      <c r="P8" s="10">
+      <c r="O8" s="10">
         <v>61</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="11">
         <v>28</v>
       </c>
-      <c r="R8" s="10">
-        <v>33</v>
-      </c>
-      <c r="S8" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="T8" s="11">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3">
         <v>27</v>
@@ -1404,55 +1382,43 @@
       <c r="G9" s="10">
         <v>78</v>
       </c>
-      <c r="H9" s="10">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="11">
         <v>26</v>
       </c>
-      <c r="J9" s="8">
+      <c r="I9" s="8">
         <v>27</v>
       </c>
-      <c r="K9" s="11">
+      <c r="J9" s="11">
         <v>84</v>
       </c>
-      <c r="L9" s="8">
+      <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="M9" s="10">
+      <c r="L9" s="10">
         <v>20</v>
       </c>
-      <c r="N9" s="11">
+      <c r="M9" s="11">
         <v>2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="N9" s="8">
         <v>2.17</v>
       </c>
-      <c r="P9" s="10">
+      <c r="O9" s="10">
         <v>56</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="P9" s="11">
         <v>27</v>
       </c>
-      <c r="R9" s="10">
-        <v>29</v>
-      </c>
-      <c r="S9" s="10">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="T9" s="11">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
@@ -1466,55 +1432,43 @@
       <c r="G10" s="10">
         <v>81</v>
       </c>
-      <c r="H10" s="10">
-        <v>63.9</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="11">
         <v>24.3</v>
       </c>
-      <c r="J10" s="8">
+      <c r="I10" s="8">
         <v>25</v>
       </c>
-      <c r="K10" s="11">
+      <c r="J10" s="11">
         <v>86</v>
       </c>
-      <c r="L10" s="8">
+      <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="M10" s="10">
+      <c r="L10" s="10">
         <v>23</v>
       </c>
-      <c r="N10" s="11">
+      <c r="M10" s="11">
         <v>2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="N10" s="8">
         <v>2.04</v>
       </c>
-      <c r="P10" s="10">
+      <c r="O10" s="10">
         <v>53</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="P10" s="11">
         <v>23</v>
       </c>
-      <c r="R10" s="10">
-        <v>30</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="T10" s="11">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>62</v>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>22</v>
@@ -1528,55 +1482,43 @@
       <c r="G11" s="10">
         <v>73</v>
       </c>
-      <c r="H11" s="10">
-        <v>61.8</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="11">
         <v>23.5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="I11" s="8">
         <v>24</v>
       </c>
-      <c r="K11" s="11">
+      <c r="J11" s="11">
         <v>83</v>
       </c>
-      <c r="L11" s="8">
+      <c r="K11" s="8">
         <v>5</v>
       </c>
-      <c r="M11" s="10">
+      <c r="L11" s="10">
         <v>23</v>
       </c>
-      <c r="N11" s="11">
+      <c r="M11" s="11">
         <v>1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="N11" s="8">
         <v>2.1</v>
       </c>
-      <c r="P11" s="10">
+      <c r="O11" s="10">
         <v>52</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="P11" s="11">
         <v>27</v>
       </c>
-      <c r="R11" s="10">
-        <v>25</v>
-      </c>
-      <c r="S11" s="10">
-        <v>1.06</v>
-      </c>
-      <c r="T11" s="11">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>63</v>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
@@ -1590,55 +1532,43 @@
       <c r="G12" s="10">
         <v>66</v>
       </c>
-      <c r="H12" s="10">
-        <v>61.3</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="11">
         <v>23.3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="I12" s="8">
         <v>24</v>
       </c>
-      <c r="K12" s="11">
+      <c r="J12" s="11">
         <v>79</v>
       </c>
-      <c r="L12" s="8">
+      <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="M12" s="10">
+      <c r="L12" s="10">
         <v>24</v>
       </c>
-      <c r="N12" s="11">
+      <c r="M12" s="11">
         <v>3</v>
       </c>
-      <c r="O12" s="8">
+      <c r="N12" s="8">
         <v>2.09</v>
       </c>
-      <c r="P12" s="10">
+      <c r="O12" s="10">
         <v>50</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="P12" s="11">
         <v>25</v>
       </c>
-      <c r="R12" s="10">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="S12" s="10">
-        <v>1.07</v>
-      </c>
-      <c r="T12" s="11">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="3">
         <v>32</v>
@@ -1652,55 +1582,43 @@
       <c r="G13" s="10">
         <v>71</v>
       </c>
-      <c r="H13" s="10">
-        <v>58.4</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="11">
         <v>22.2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="I13" s="8">
         <v>22</v>
       </c>
-      <c r="K13" s="11">
+      <c r="J13" s="11">
         <v>82</v>
       </c>
-      <c r="L13" s="8">
+      <c r="K13" s="8">
         <v>6</v>
       </c>
-      <c r="M13" s="10">
+      <c r="L13" s="10">
         <v>33</v>
       </c>
-      <c r="N13" s="11">
+      <c r="M13" s="11">
         <v>0</v>
       </c>
-      <c r="O13" s="8">
+      <c r="N13" s="8">
         <v>2.14</v>
       </c>
-      <c r="P13" s="10">
+      <c r="O13" s="10">
         <v>54</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="P13" s="11">
         <v>18</v>
       </c>
-      <c r="R13" s="10">
-        <v>36</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>65</v>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3">
         <v>32</v>
@@ -1714,55 +1632,43 @@
       <c r="G14" s="10">
         <v>51</v>
       </c>
-      <c r="H14" s="10">
-        <v>48.9</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="11">
         <v>18.600000000000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="I14" s="8">
         <v>16</v>
       </c>
-      <c r="K14" s="11">
+      <c r="J14" s="11">
         <v>79</v>
       </c>
-      <c r="L14" s="8">
+      <c r="K14" s="8">
         <v>17</v>
       </c>
-      <c r="M14" s="10">
+      <c r="L14" s="10">
         <v>24</v>
       </c>
-      <c r="N14" s="11">
+      <c r="M14" s="11">
         <v>3</v>
       </c>
-      <c r="O14" s="8">
+      <c r="N14" s="8">
         <v>2.12</v>
       </c>
-      <c r="P14" s="10">
+      <c r="O14" s="10">
         <v>48</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="P14" s="11">
         <v>17</v>
       </c>
-      <c r="R14" s="10">
-        <v>31</v>
-      </c>
-      <c r="S14" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="T14" s="11">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>66</v>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
         <v>31</v>
@@ -1776,55 +1682,43 @@
       <c r="G15" s="10">
         <v>51</v>
       </c>
-      <c r="H15" s="10">
-        <v>46.5</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="11">
         <v>17.7</v>
       </c>
-      <c r="J15" s="8">
+      <c r="I15" s="8">
         <v>16</v>
       </c>
-      <c r="K15" s="11">
+      <c r="J15" s="11">
         <v>78</v>
       </c>
-      <c r="L15" s="8">
+      <c r="K15" s="8">
         <v>15</v>
       </c>
-      <c r="M15" s="10">
+      <c r="L15" s="10">
         <v>23</v>
       </c>
-      <c r="N15" s="11">
+      <c r="M15" s="11">
         <v>5</v>
       </c>
-      <c r="O15" s="8">
+      <c r="N15" s="8">
         <v>2.13</v>
       </c>
-      <c r="P15" s="10">
+      <c r="O15" s="10">
         <v>31</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="P15" s="11">
         <v>15</v>
       </c>
-      <c r="R15" s="10">
-        <v>16</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="T15" s="11">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>67</v>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -1838,55 +1732,43 @@
       <c r="G16" s="10">
         <v>56</v>
       </c>
-      <c r="H16" s="10">
-        <v>34.6</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="11">
         <v>13.1</v>
       </c>
-      <c r="J16" s="8">
+      <c r="I16" s="8">
         <v>14</v>
       </c>
-      <c r="K16" s="11">
+      <c r="J16" s="11">
         <v>74</v>
       </c>
-      <c r="L16" s="8">
+      <c r="K16" s="8">
         <v>7</v>
       </c>
-      <c r="M16" s="10">
+      <c r="L16" s="10">
         <v>21</v>
       </c>
-      <c r="N16" s="11">
+      <c r="M16" s="11">
         <v>6</v>
       </c>
-      <c r="O16" s="8">
+      <c r="N16" s="8">
         <v>2.29</v>
       </c>
-      <c r="P16" s="10">
+      <c r="O16" s="10">
         <v>32</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="R16" s="10">
-        <v>21</v>
-      </c>
-      <c r="S16" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="T16" s="11">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -1900,55 +1782,43 @@
       <c r="G17" s="10">
         <v>43</v>
       </c>
-      <c r="H17" s="10">
-        <v>30</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="11">
         <v>11.4</v>
       </c>
-      <c r="J17" s="8">
+      <c r="I17" s="8">
         <v>11</v>
       </c>
-      <c r="K17" s="11">
+      <c r="J17" s="11">
         <v>71</v>
       </c>
-      <c r="L17" s="8">
+      <c r="K17" s="8">
         <v>13</v>
       </c>
-      <c r="M17" s="10">
+      <c r="L17" s="10">
         <v>19</v>
       </c>
-      <c r="N17" s="11">
+      <c r="M17" s="11">
         <v>9</v>
       </c>
-      <c r="O17" s="8">
+      <c r="N17" s="8">
         <v>2.04</v>
       </c>
-      <c r="P17" s="10">
+      <c r="O17" s="10">
         <v>27</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="P17" s="11">
         <v>14</v>
       </c>
-      <c r="R17" s="10">
-        <v>13</v>
-      </c>
-      <c r="S17" s="10">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="T17" s="11">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
         <v>22</v>
@@ -1962,55 +1832,43 @@
       <c r="G18" s="10">
         <v>60</v>
       </c>
-      <c r="H18" s="10">
-        <v>29.6</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="H18" s="11">
         <v>11.3</v>
       </c>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
         <v>11</v>
       </c>
-      <c r="K18" s="11">
+      <c r="J18" s="11">
         <v>82</v>
       </c>
-      <c r="L18" s="8">
+      <c r="K18" s="8">
         <v>6</v>
       </c>
-      <c r="M18" s="10">
+      <c r="L18" s="10">
         <v>19</v>
       </c>
-      <c r="N18" s="11">
+      <c r="M18" s="11">
         <v>11</v>
       </c>
-      <c r="O18" s="8">
+      <c r="N18" s="8">
         <v>2.5299999999999998</v>
       </c>
-      <c r="P18" s="10">
+      <c r="O18" s="10">
         <v>29</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="P18" s="11">
         <v>11</v>
       </c>
-      <c r="R18" s="10">
-        <v>18</v>
-      </c>
-      <c r="S18" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="T18" s="11">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>25</v>
@@ -2024,55 +1882,43 @@
       <c r="G19" s="10">
         <v>73</v>
       </c>
-      <c r="H19" s="10">
-        <v>27.7</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="11">
         <v>10.5</v>
       </c>
-      <c r="J19" s="8">
+      <c r="I19" s="8">
         <v>10</v>
       </c>
-      <c r="K19" s="11">
+      <c r="J19" s="11">
         <v>90</v>
       </c>
-      <c r="L19" s="8">
+      <c r="K19" s="8">
         <v>3</v>
       </c>
-      <c r="M19" s="10">
+      <c r="L19" s="10">
         <v>16</v>
       </c>
-      <c r="N19" s="11">
+      <c r="M19" s="11">
         <v>12</v>
       </c>
-      <c r="O19" s="8">
+      <c r="N19" s="8">
         <v>2.38</v>
       </c>
-      <c r="P19" s="10">
+      <c r="O19" s="10">
         <v>24</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="P19" s="11">
         <v>12</v>
       </c>
-      <c r="R19" s="10">
-        <v>12</v>
-      </c>
-      <c r="S19" s="10">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="T19" s="11">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
@@ -2086,55 +1932,43 @@
       <c r="G20" s="10">
         <v>46</v>
       </c>
-      <c r="H20" s="10">
-        <v>14.9</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="11">
         <v>5.7</v>
       </c>
-      <c r="J20" s="8">
+      <c r="I20" s="8">
         <v>5</v>
       </c>
-      <c r="K20" s="11">
+      <c r="J20" s="11">
         <v>80</v>
       </c>
-      <c r="L20" s="8">
+      <c r="K20" s="8">
         <v>6</v>
       </c>
-      <c r="M20" s="10">
+      <c r="L20" s="10">
         <v>19</v>
       </c>
-      <c r="N20" s="11">
+      <c r="M20" s="11">
         <v>4</v>
       </c>
-      <c r="O20" s="8">
+      <c r="N20" s="8">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P20" s="10">
+      <c r="O20" s="10">
         <v>14</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="P20" s="11">
         <v>5</v>
       </c>
-      <c r="R20" s="10">
-        <v>9</v>
-      </c>
-      <c r="S20" s="10">
-        <v>1.59</v>
-      </c>
-      <c r="T20" s="11">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3">
         <v>21</v>
@@ -2148,55 +1982,43 @@
       <c r="G21" s="10">
         <v>48</v>
       </c>
-      <c r="H21" s="10">
-        <v>13.9</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="11">
         <v>5.3</v>
       </c>
-      <c r="J21" s="8">
+      <c r="I21" s="8">
         <v>5</v>
       </c>
-      <c r="K21" s="11">
+      <c r="J21" s="11">
         <v>77</v>
       </c>
-      <c r="L21" s="8">
+      <c r="K21" s="8">
         <v>5</v>
       </c>
-      <c r="M21" s="10">
+      <c r="L21" s="10">
         <v>18</v>
       </c>
-      <c r="N21" s="11">
+      <c r="M21" s="11">
         <v>6</v>
       </c>
-      <c r="O21" s="8">
+      <c r="N21" s="8">
         <v>1.9</v>
       </c>
-      <c r="P21" s="10">
+      <c r="O21" s="10">
         <v>14</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="P21" s="11">
         <v>10</v>
       </c>
-      <c r="R21" s="10">
-        <v>4</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="T21" s="11">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>68</v>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3">
         <v>28</v>
@@ -2210,55 +2032,43 @@
       <c r="G22" s="10">
         <v>37</v>
       </c>
-      <c r="H22" s="10">
-        <v>11.9</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="11">
         <v>4.5</v>
       </c>
-      <c r="J22" s="8">
+      <c r="I22" s="8">
         <v>4</v>
       </c>
-      <c r="K22" s="11">
+      <c r="J22" s="11">
         <v>75</v>
       </c>
-      <c r="L22" s="8">
+      <c r="K22" s="8">
         <v>7</v>
       </c>
-      <c r="M22" s="10">
+      <c r="L22" s="10">
         <v>16</v>
       </c>
-      <c r="N22" s="11">
+      <c r="M22" s="11">
         <v>3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="N22" s="8">
         <v>2.09</v>
       </c>
-      <c r="P22" s="10">
+      <c r="O22" s="10">
         <v>8</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="P22" s="11">
         <v>4</v>
       </c>
-      <c r="R22" s="10">
-        <v>4</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="T22" s="11">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
@@ -2272,55 +2082,43 @@
       <c r="G23" s="10">
         <v>71</v>
       </c>
-      <c r="H23" s="10">
-        <v>10.4</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="11">
         <v>4</v>
       </c>
-      <c r="J23" s="8">
+      <c r="I23" s="8">
         <v>3</v>
       </c>
-      <c r="K23" s="11">
+      <c r="J23" s="11">
         <v>89</v>
       </c>
-      <c r="L23" s="8">
+      <c r="K23" s="8">
         <v>2</v>
       </c>
-      <c r="M23" s="10">
+      <c r="L23" s="10">
         <v>45</v>
       </c>
-      <c r="N23" s="11">
+      <c r="M23" s="11">
         <v>0</v>
       </c>
-      <c r="O23" s="8">
+      <c r="N23" s="8">
         <v>2.4</v>
       </c>
-      <c r="P23" s="10">
+      <c r="O23" s="10">
         <v>8</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="P23" s="11">
         <v>2</v>
       </c>
-      <c r="R23" s="10">
-        <v>6</v>
-      </c>
-      <c r="S23" s="10">
-        <v>1.51</v>
-      </c>
-      <c r="T23" s="11">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>64</v>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3">
         <v>20</v>
@@ -2334,55 +2132,43 @@
       <c r="G24" s="10">
         <v>40</v>
       </c>
-      <c r="H24" s="10">
-        <v>7</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="H24" s="11">
         <v>2.6</v>
       </c>
-      <c r="J24" s="8">
+      <c r="I24" s="8">
         <v>2</v>
       </c>
-      <c r="K24" s="11">
+      <c r="J24" s="11">
         <v>90</v>
       </c>
-      <c r="L24" s="8">
+      <c r="K24" s="8">
         <v>4</v>
       </c>
-      <c r="M24" s="10">
+      <c r="L24" s="10">
         <v>15</v>
       </c>
-      <c r="N24" s="11">
+      <c r="M24" s="11">
         <v>9</v>
       </c>
-      <c r="O24" s="8">
+      <c r="N24" s="8">
         <v>3</v>
       </c>
-      <c r="P24" s="10">
+      <c r="O24" s="10">
         <v>11</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="P24" s="11">
         <v>0</v>
       </c>
-      <c r="R24" s="10">
-        <v>11</v>
-      </c>
-      <c r="S24" s="10">
-        <v>4.16</v>
-      </c>
-      <c r="T24" s="11">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>67</v>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>26</v>
@@ -2396,55 +2182,43 @@
       <c r="G25" s="10">
         <v>62</v>
       </c>
-      <c r="H25" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="H25" s="11">
         <v>2.1</v>
       </c>
-      <c r="J25" s="8">
+      <c r="I25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="11">
+      <c r="J25" s="11">
         <v>66</v>
       </c>
-      <c r="L25" s="8">
+      <c r="K25" s="8">
         <v>1</v>
       </c>
-      <c r="M25" s="10">
+      <c r="L25" s="10">
         <v>54</v>
       </c>
-      <c r="N25" s="11">
+      <c r="M25" s="11">
         <v>0</v>
       </c>
-      <c r="O25" s="8">
+      <c r="N25" s="8">
         <v>1.33</v>
       </c>
-      <c r="P25" s="10">
+      <c r="O25" s="10">
         <v>6</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="P25" s="11">
         <v>4</v>
       </c>
-      <c r="R25" s="10">
-        <v>2</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0.97</v>
-      </c>
-      <c r="T25" s="11">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>67</v>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3">
         <v>30</v>
@@ -2458,53 +2232,41 @@
       <c r="G26" s="10">
         <v>90</v>
       </c>
-      <c r="H26" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="H26" s="11">
         <v>2</v>
       </c>
-      <c r="J26" s="8">
+      <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="K26" s="11">
+      <c r="J26" s="11">
         <v>90</v>
       </c>
-      <c r="L26" s="8">
+      <c r="K26" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11">
+      <c r="L26" s="10"/>
+      <c r="M26" s="11">
         <v>29</v>
       </c>
-      <c r="O26" s="8">
+      <c r="N26" s="8">
         <v>2</v>
       </c>
-      <c r="P26" s="10">
+      <c r="O26" s="10">
         <v>7</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="P26" s="11">
         <v>2</v>
       </c>
-      <c r="R26" s="10">
-        <v>5</v>
-      </c>
-      <c r="S26" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="T26" s="11">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>59</v>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3">
         <v>21</v>
@@ -2518,55 +2280,43 @@
       <c r="G27" s="10">
         <v>43</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+      <c r="J27" s="11">
+        <v>68</v>
+      </c>
+      <c r="K27" s="8">
+        <v>2</v>
+      </c>
+      <c r="L27" s="10">
+        <v>19</v>
+      </c>
+      <c r="M27" s="11">
+        <v>6</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="O27" s="10">
         <v>5</v>
       </c>
-      <c r="I27" s="11">
-        <v>1.9</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2</v>
-      </c>
-      <c r="K27" s="11">
-        <v>68</v>
-      </c>
-      <c r="L27" s="8">
-        <v>2</v>
-      </c>
-      <c r="M27" s="10">
-        <v>19</v>
-      </c>
-      <c r="N27" s="11">
-        <v>6</v>
-      </c>
-      <c r="O27" s="8">
-        <v>1.75</v>
-      </c>
-      <c r="P27" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="10">
+      <c r="P27" s="11">
         <v>1</v>
       </c>
-      <c r="R27" s="10">
-        <v>4</v>
-      </c>
-      <c r="S27" s="10">
-        <v>2.09</v>
-      </c>
-      <c r="T27" s="11">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>69</v>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3">
         <v>20</v>
@@ -2580,53 +2330,41 @@
       <c r="G28" s="10">
         <v>90</v>
       </c>
-      <c r="H28" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
-      <c r="J28" s="8">
+      <c r="I28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="11">
+      <c r="J28" s="11">
         <v>90</v>
       </c>
-      <c r="L28" s="8">
+      <c r="K28" s="8">
         <v>0</v>
       </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11">
+      <c r="L28" s="10"/>
+      <c r="M28" s="11">
         <v>4</v>
       </c>
-      <c r="O28" s="8">
+      <c r="N28" s="8">
         <v>3</v>
       </c>
-      <c r="P28" s="10">
+      <c r="O28" s="10">
         <v>2</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="P28" s="11">
         <v>1</v>
       </c>
-      <c r="R28" s="10">
-        <v>1</v>
-      </c>
-      <c r="S28" s="10">
-        <v>1</v>
-      </c>
-      <c r="T28" s="11">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3">
         <v>19</v>
@@ -2640,109 +2378,85 @@
       <c r="G29" s="10">
         <v>39</v>
       </c>
-      <c r="H29" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="H29" s="11">
         <v>0.9</v>
       </c>
-      <c r="J29" s="8">
+      <c r="I29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="11">
+      <c r="J29" s="11">
         <v>72</v>
       </c>
-      <c r="L29" s="8">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="M29" s="10">
+      <c r="L29" s="10">
         <v>5</v>
       </c>
-      <c r="N29" s="11">
+      <c r="M29" s="11">
         <v>7</v>
       </c>
-      <c r="O29" s="8">
+      <c r="N29" s="8">
         <v>3</v>
       </c>
-      <c r="P29" s="10">
+      <c r="O29" s="10">
         <v>3</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="P29" s="11">
         <v>0</v>
       </c>
-      <c r="R29" s="10">
-        <v>3</v>
-      </c>
-      <c r="S29" s="10">
-        <v>3.51</v>
-      </c>
-      <c r="T29" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="24">
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="21">
         <v>20</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="23">
         <v>6</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="23">
         <v>6</v>
       </c>
-      <c r="H30" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="I30" s="27">
+      <c r="H30" s="24">
         <v>0.1</v>
       </c>
-      <c r="J30" s="25">
+      <c r="I30" s="22">
         <v>0</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="25">
+      <c r="J30" s="24"/>
+      <c r="K30" s="22">
         <v>1</v>
       </c>
-      <c r="M30" s="26">
+      <c r="L30" s="23">
         <v>6</v>
       </c>
-      <c r="N30" s="27">
+      <c r="M30" s="24">
         <v>11</v>
       </c>
-      <c r="O30" s="25">
+      <c r="N30" s="22">
         <v>0</v>
       </c>
-      <c r="P30" s="26">
+      <c r="O30" s="23">
         <v>0</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="P30" s="24">
         <v>0</v>
       </c>
-      <c r="R30" s="26">
-        <v>0</v>
-      </c>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="27">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -2756,50 +2470,40 @@
       <c r="G31" s="5">
         <v>90</v>
       </c>
-      <c r="H31" s="5">
-        <v>100</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="13">
         <v>38</v>
       </c>
-      <c r="J31" s="4">
+      <c r="I31" s="4">
         <v>418</v>
       </c>
-      <c r="K31" s="13">
+      <c r="J31" s="13">
         <v>83</v>
       </c>
-      <c r="L31" s="4">
+      <c r="K31" s="4">
         <v>123</v>
       </c>
-      <c r="M31" s="5">
+      <c r="L31" s="5">
         <v>22</v>
       </c>
-      <c r="N31" s="13">
+      <c r="M31" s="13">
         <v>183</v>
       </c>
-      <c r="O31" s="4">
+      <c r="N31" s="4">
         <v>2.16</v>
       </c>
-      <c r="P31" s="5">
+      <c r="O31" s="5">
         <v>86</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="P31" s="13">
         <v>38</v>
       </c>
-      <c r="R31" s="5">
-        <v>48</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1.26</v>
-      </c>
-      <c r="T31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
